--- a/src/common/templates/12.Filling.xlsx
+++ b/src/common/templates/12.Filling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1F45B2-6500-48D3-8634-68D35672E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5267493F-94C6-4373-AFDC-912E698B374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15855" yWindow="750" windowWidth="15495" windowHeight="14835" xr2:uid="{61E919D3-3B7B-47AB-9637-80C33CBDA580}"/>
+    <workbookView xWindow="5685" yWindow="495" windowWidth="13200" windowHeight="14940" xr2:uid="{61E919D3-3B7B-47AB-9637-80C33CBDA580}"/>
   </bookViews>
   <sheets>
     <sheet name=" 전해액 주액 작업 일지" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>전해액 주액 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -270,6 +270,22 @@
   </si>
   <si>
     <t>7. 비고 / 특이사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C / 50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상없음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -512,139 +528,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -672,9 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -685,6 +569,138 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1032,747 +1048,833 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="9" style="55"/>
+    <col min="10" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="4" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="21" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5" t="s">
+      <c r="J17" s="32"/>
+      <c r="K17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="30" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="22"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="23" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="24"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="27"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="29"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="38"/>
+      <c r="G28" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="42" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="58"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="13" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="13" t="s">
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="44"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="58"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="13" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="13" t="s">
+      <c r="F36" s="15"/>
+      <c r="G36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="58"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="48"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="54"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="J24:L25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:I27"/>
+    <mergeCell ref="J26:L27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A28:B31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
     <mergeCell ref="A39:L45"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A11:L11"/>
@@ -1789,82 +1891,6 @@
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:I27"/>
-    <mergeCell ref="J26:L27"/>
-    <mergeCell ref="A28:B31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:I25"/>
-    <mergeCell ref="J24:L25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
